--- a/groups.xlsx
+++ b/groups.xlsx
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>namep</t>
-  </si>
-  <si>
-    <t>name%yg03p?HE</t>
-  </si>
-  <si>
-    <t>name9V}Bk6</t>
-  </si>
-  <si>
-    <t>nameUcT"_j</t>
-  </si>
-  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>NAME&lt;82:w$+e</t>
+  </si>
+  <si>
+    <t>NAMEb2+plW</t>
+  </si>
+  <si>
+    <t>NAMEOa</t>
+  </si>
+  <si>
+    <t>NAME!</t>
+  </si>
+  <si>
+    <t>NAMEo`GzA-si</t>
   </si>
 </sst>
 </file>
